--- a/pytheas_data/rna_mod_defs_light.xlsx
+++ b/pytheas_data/rna_mod_defs_light.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrwill/prog/pytheas_tk_interface/pytheas_root/pytheas_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrwill/prog/Pytheas_Folder/Pytheas_Qt_root/Pytheas_Qt/pytheas_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE4BA4A-1838-E64C-9BA8-D5ECB6A794D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE63A08-69AC-6140-BCD2-7C5A697BDD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="2620" windowWidth="23020" windowHeight="18440" firstSheet="102" activeTab="105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25860" yWindow="3380" windowWidth="23020" windowHeight="18440" firstSheet="102" activeTab="106" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADE" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13725" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13725" uniqueCount="138">
   <si>
     <t>Atom_name</t>
   </si>
@@ -545,6 +545,9 @@
   <si>
     <t>OH5</t>
   </si>
+  <si>
+    <t>HO3</t>
+  </si>
 </sst>
 </file>
 
@@ -4771,7 +4774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6900-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -4828,8 +4831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6A00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4859,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/pytheas_data/rna_mod_defs_light.xlsx
+++ b/pytheas_data/rna_mod_defs_light.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrwill/prog/Pytheas_Folder/Pytheas_Qt_root/Pytheas_Qt/pytheas_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE63A08-69AC-6140-BCD2-7C5A697BDD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA2EB2D-8BA6-5846-A798-2C2D1E02171B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25860" yWindow="3380" windowWidth="23020" windowHeight="18440" firstSheet="102" activeTab="106" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5860" yWindow="760" windowWidth="23020" windowHeight="18360" firstSheet="102" activeTab="102" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADE" sheetId="1" r:id="rId1"/>
@@ -3641,9 +3641,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6600-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -4831,7 +4837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6A00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/pytheas_data/rna_mod_defs_light.xlsx
+++ b/pytheas_data/rna_mod_defs_light.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrwill/prog/Pytheas_Folder/Pytheas_Qt_root/Pytheas_Qt/pytheas_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA2EB2D-8BA6-5846-A798-2C2D1E02171B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702FAB9F-9C75-5F4D-B038-D6B56BEAB895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5860" yWindow="760" windowWidth="23020" windowHeight="18360" firstSheet="102" activeTab="102" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5860" yWindow="760" windowWidth="23020" windowHeight="18360" firstSheet="106" activeTab="117" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADE" sheetId="1" r:id="rId1"/>
@@ -127,13 +127,17 @@
     <sheet name="TG3" sheetId="112" r:id="rId112"/>
     <sheet name="TG4" sheetId="113" r:id="rId113"/>
     <sheet name="CTG" sheetId="114" r:id="rId114"/>
+    <sheet name="HHH" sheetId="115" r:id="rId115"/>
+    <sheet name="CCC" sheetId="116" r:id="rId116"/>
+    <sheet name="OOO" sheetId="117" r:id="rId117"/>
+    <sheet name="NNN" sheetId="118" r:id="rId118"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13725" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13754" uniqueCount="140">
   <si>
     <t>Atom_name</t>
   </si>
@@ -548,6 +552,12 @@
   <si>
     <t>HO3</t>
   </si>
+  <si>
+    <t>atom</t>
+  </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
@@ -605,11 +615,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3641,7 +3652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6600-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6469,7 +6480,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7100-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -6933,6 +6946,183 @@
       </c>
       <c r="D33" t="s">
         <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD21F6D0-2565-FF4C-904B-AA1EE42B6CAF}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B280606-A97B-814B-94B3-3119A96A9F68}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08FC81D-F781-9848-8384-7AAFE8BD1085}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96D2D56-9808-9649-9554-4F3E84B0FB0C}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
